--- a/paskaitu medziaga/naujas namas/namo skaiciuokle.xlsx
+++ b/paskaitu medziaga/naujas namas/namo skaiciuokle.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVELOPER\JavaKursai\paskaitu medziaga\naujas namas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="23955" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="samata" sheetId="1" r:id="rId1"/>
     <sheet name="medziagu kaina" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="suvestine" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samata!$A$1:$J$43</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="13" r:id="rId4"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>medziagos</t>
   </si>
@@ -258,9 +266,6 @@
     <t>0,33 uz vnt</t>
   </si>
   <si>
-    <t xml:space="preserve">sienos </t>
-  </si>
-  <si>
     <t>armavimo kampai</t>
   </si>
   <si>
@@ -286,12 +291,27 @@
   </si>
   <si>
     <t>projektas namo</t>
+  </si>
+  <si>
+    <t>etapas</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of suma</t>
+  </si>
+  <si>
+    <t>sienos apsiltinimas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,9 +350,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,8 +368,569 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Raimondas" refreshedDate="42966.914955324071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F51" sheet="samata"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="etapas" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="grindys"/>
+        <s v="inzinerija"/>
+        <s v="pamatas"/>
+        <s v="sienos"/>
+        <s v="sienos apsiltinimas"/>
+        <s v="stogas"/>
+        <m/>
+        <s v="sienos " u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="medziagos" numFmtId="0">
+      <sharedItems containsBlank="1" count="43">
+        <s v="polistirolas grindims"/>
+        <s v="armavimo tinklas"/>
+        <s v="betonavimas darbai"/>
+        <s v="betonas grindims"/>
+        <s v="grindinis sildymo vamzdis"/>
+        <s v="plevele juoda 200 mkr"/>
+        <s v="vandens grezinys"/>
+        <s v="valymo irenginys"/>
+        <s v="granulinis katilas"/>
+        <s v="malku katilas"/>
+        <s v="grezinio iranga"/>
+        <s v="elektra"/>
+        <s v="sildymo iranga"/>
+        <s v="boileris"/>
+        <s v="pamato poliai betonas"/>
+        <s v="pamato perimetras betonas"/>
+        <s v="savivartis betonui atvezti"/>
+        <s v="traktorius nuoma"/>
+        <s v="klojiniu nuoma"/>
+        <s v="pamato armatura 12"/>
+        <s v="pamato armatura 10"/>
+        <s v="sujungimu armatura 6"/>
+        <s v="polistirolas is apacios 15 cm aukscio"/>
+        <s v="isores blokeliai "/>
+        <s v="vidine nesanti blokeliu pertvara"/>
+        <s v="skiedinys blokeliams"/>
+        <s v="polistirenas isores sienom"/>
+        <s v="polistorolo isores tinkas ir klijai polistirolo"/>
+        <s v="langai"/>
+        <s v="virsutinis rostverkas betonas"/>
+        <s v="virsutinis rostvekas metalai"/>
+        <s v="plastikinis armavimo tinklelis"/>
+        <s v="plastikines polistirolo smeiges"/>
+        <s v="armavimo kampai"/>
+        <s v="mediena stogui gegnes"/>
+        <s v="mediena stori brusai "/>
+        <s v="bruseliai 50x50"/>
+        <s v="stogo skarda"/>
+        <s v="stogo vata"/>
+        <s v="difuzine plevele"/>
+        <s v="juoda plevele"/>
+        <s v="projektas namo"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="kiekis" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="800"/>
+    </cacheField>
+    <cacheField name="kaina" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.2" maxValue="2000"/>
+    </cacheField>
+    <cacheField name="suma" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="2450"/>
+    </cacheField>
+    <cacheField name="paaiskinimas" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="43">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="55"/>
+    <n v="440"/>
+    <s v="10 mm grindims"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="80"/>
+    <n v="2.5"/>
+    <n v="200"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="80"/>
+    <n v="3"/>
+    <n v="240"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="6.5"/>
+    <n v="80"/>
+    <n v="520"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="800"/>
+    <n v="0.7"/>
+    <n v="560"/>
+    <s v="skaiciuota kas 10 cm"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="80"/>
+    <n v="0.24"/>
+    <n v="19.2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="80"/>
+    <n v="30"/>
+    <n v="2400"/>
+    <s v="grezimo kaina apie 30 e/m"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1200"/>
+    <n v="1200"/>
+    <s v="valymo irenginys apie 1200 e"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <m/>
+    <n v="2000"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="1"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="1"/>
+    <n v="2000"/>
+    <n v="2000"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <n v="1"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <n v="1"/>
+    <n v="300"/>
+    <n v="300"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <n v="2"/>
+    <n v="80"/>
+    <n v="160"/>
+    <s v="D25, 14 vnt po 3 m"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <n v="2.7"/>
+    <n v="80"/>
+    <n v="216"/>
+    <s v="25 plocio*30 cm aukscio, ilgis pamato 36 m"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <n v="50"/>
+    <n v="2.5"/>
+    <n v="125"/>
+    <s v="betono tankis apie 2,5, uz km apie 2,5 eur, "/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <n v="6"/>
+    <n v="30"/>
+    <n v="180"/>
+    <s v="val 30 eur"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <n v="1"/>
+    <n v="200"/>
+    <n v="200"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <n v="170"/>
+    <n v="0.6"/>
+    <n v="102"/>
+    <s v="armatura 12 ir 10 mm"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <n v="144"/>
+    <n v="0.4"/>
+    <n v="57.6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <n v="150"/>
+    <n v="0.22"/>
+    <n v="33"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <n v="1.5"/>
+    <n v="55"/>
+    <n v="82.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <n v="20"/>
+    <n v="60"/>
+    <n v="1200"/>
+    <s v="duju silikatas 25 mm"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="24"/>
+    <n v="10"/>
+    <n v="60"/>
+    <n v="600"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="25"/>
+    <n v="50"/>
+    <n v="5"/>
+    <n v="250"/>
+    <s v="?"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="26"/>
+    <n v="22"/>
+    <n v="40"/>
+    <n v="880"/>
+    <s v="20 mm storio"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="27"/>
+    <n v="80"/>
+    <n v="6"/>
+    <n v="480"/>
+    <s v="5 kg/m2 ir klijuojant ir armuojant, 25 kg kaina 6 eur"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="28"/>
+    <n v="35"/>
+    <n v="70"/>
+    <n v="2450"/>
+    <s v="kvadratas apie 70 e"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="29"/>
+    <n v="1.25"/>
+    <n v="80"/>
+    <n v="100"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="30"/>
+    <n v="100"/>
+    <n v="0.45"/>
+    <n v="45"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <n v="110"/>
+    <n v="0.81"/>
+    <n v="89.100000000000009"/>
+    <s v="0,81 uz 1 m2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="32"/>
+    <n v="500"/>
+    <n v="0.33"/>
+    <n v="165"/>
+    <s v="0,33 uz vnt"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="33"/>
+    <n v="70"/>
+    <n v="0.55000000000000004"/>
+    <n v="38.5"/>
+    <s v="0,55 uz 1 m"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="34"/>
+    <n v="3"/>
+    <n v="130"/>
+    <n v="390"/>
+    <s v="gegnes 250x50, kubo kaina 150 e"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="35"/>
+    <n v="1.5"/>
+    <n v="150"/>
+    <n v="225"/>
+    <s v="150x150 24 m"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="36"/>
+    <n v="1.2"/>
+    <n v="150"/>
+    <n v="180"/>
+    <s v="50x50x440 m"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="37"/>
+    <n v="132"/>
+    <n v="7"/>
+    <n v="924"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="38"/>
+    <n v="30"/>
+    <n v="35"/>
+    <n v="1050"/>
+    <s v="storis 30 cm"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="39"/>
+    <n v="100"/>
+    <n v="0.9"/>
+    <n v="90"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="40"/>
+    <n v="100"/>
+    <n v="0.2"/>
+    <n v="20"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="41"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="42"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="7"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="44">
+        <item x="33"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="13"/>
+        <item x="36"/>
+        <item x="39"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="40"/>
+        <item x="18"/>
+        <item x="28"/>
+        <item x="9"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="5"/>
+        <item x="26"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="41"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="21"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of suma" fld="4" baseField="0" baseItem="1762592"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,7 +976,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +1011,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -638,12 +1224,12 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
@@ -651,6 +1237,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +1376,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -808,7 +1397,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -829,7 +1418,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -844,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -862,12 +1451,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -880,12 +1469,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -898,12 +1487,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -916,12 +1505,12 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1173,7 +1762,7 @@
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
         <v>68</v>
@@ -1194,7 +1783,7 @@
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>49</v>
@@ -1272,7 +1861,7 @@
     </row>
     <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
         <v>75</v>
@@ -1293,7 +1882,7 @@
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -1314,10 +1903,10 @@
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
         <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
       </c>
       <c r="C35">
         <v>70</v>
@@ -1330,10 +1919,10 @@
         <v>38.5</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1354,7 +1943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1375,7 +1964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1396,7 +1985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -1414,7 +2003,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1435,12 +2024,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41">
         <v>100</v>
@@ -1453,12 +2042,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42">
         <v>100</v>
@@ -1471,12 +2060,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1499,12 +2088,9 @@
   <autoFilter ref="A1:J43">
     <filterColumn colId="0">
       <filters>
-        <filter val="inzinerija"/>
+        <filter val="stogas"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:J42">
-      <sortCondition ref="A1:A42"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1642,12 +2228,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="44" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1156.0999999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/paskaitu medziaga/naujas namas/namo skaiciuokle.xlsx
+++ b/paskaitu medziaga/naujas namas/namo skaiciuokle.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVELOPER\JavaKursai\paskaitu medziaga\naujas namas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23955" windowHeight="13095"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18480" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="samata" sheetId="1" r:id="rId1"/>
     <sheet name="medziagu kaina" sheetId="2" r:id="rId2"/>
     <sheet name="suvestine" sheetId="3" r:id="rId3"/>
+    <sheet name="pamatas" sheetId="4" r:id="rId4"/>
+    <sheet name="ka pasiruosti isanksto" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samata!$A$1:$J$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'medziagu kaina'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samata!$B$1:$K$47</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
   <si>
     <t>medziagos</t>
   </si>
@@ -41,21 +39,12 @@
     <t xml:space="preserve">namas </t>
   </si>
   <si>
-    <t>10x8 m</t>
-  </si>
-  <si>
     <t>paaiskinimas</t>
   </si>
   <si>
     <t>suma</t>
   </si>
   <si>
-    <t>D25, 14 vnt po 3 m</t>
-  </si>
-  <si>
-    <t>25 plocio*30 cm aukscio, ilgis pamato 36 m</t>
-  </si>
-  <si>
     <t>armatura 12 ir 10 mm</t>
   </si>
   <si>
@@ -306,12 +295,135 @@
   </si>
   <si>
     <t>sienos apsiltinimas</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>eiliskumas</t>
+  </si>
+  <si>
+    <t>isgreziame skyles</t>
+  </si>
+  <si>
+    <t>dedame I apacia polistirola</t>
+  </si>
+  <si>
+    <t>klojinius libdome</t>
+  </si>
+  <si>
+    <t>uzpilame betona I polius</t>
+  </si>
+  <si>
+    <t>dedame rostverko armaturas</t>
+  </si>
+  <si>
+    <t>uzpilame rostverko betona</t>
+  </si>
+  <si>
+    <t>issinuomuojame vibratoriu</t>
+  </si>
+  <si>
+    <t>10x10 m</t>
+  </si>
+  <si>
+    <t>poliu armaturos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rostverko armaturas</t>
+  </si>
+  <si>
+    <t>polistirolas I pamato apacia</t>
+  </si>
+  <si>
+    <t>oziai aukstesniam murijimui</t>
+  </si>
+  <si>
+    <t>pamtu klojiniai ir atramu stulpeliai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> virsutinio ziedo klojiniai</t>
+  </si>
+  <si>
+    <t>saramu liejimo atramos</t>
+  </si>
+  <si>
+    <t>virsutinio ziedo armaturos</t>
+  </si>
+  <si>
+    <t>virsutinio ziedo kaisciai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> saramu armaturos</t>
+  </si>
+  <si>
+    <t>pagaliukai ploto rostverkui</t>
+  </si>
+  <si>
+    <t>viena polis 0,147</t>
+  </si>
+  <si>
+    <t>25 plocio*40 cm aukscio, ilgis pamato 40 m</t>
+  </si>
+  <si>
+    <t>polistirolas is apacios 10 cm aukscio</t>
+  </si>
+  <si>
+    <t>poliu armatura 12 mm</t>
+  </si>
+  <si>
+    <t>D25, 16 vnt po 3 m, vienas polis 0,147 m3</t>
+  </si>
+  <si>
+    <t>pamato rostverko armatura 12</t>
+  </si>
+  <si>
+    <t>vidurkis 80 cm vienas sujungimui</t>
+  </si>
+  <si>
+    <t>apsiltinimas is isores</t>
+  </si>
+  <si>
+    <t>apsiltinimas is vidaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportas </t>
+  </si>
+  <si>
+    <t>vienas kartas</t>
+  </si>
+  <si>
+    <t>smelis</t>
+  </si>
+  <si>
+    <t>plautas zvyras</t>
+  </si>
+  <si>
+    <t>smelis uzpylimui</t>
+  </si>
+  <si>
+    <t>juosta pamatine</t>
+  </si>
+  <si>
+    <t>osb 22 mm</t>
+  </si>
+  <si>
+    <t>osb klojiniams</t>
+  </si>
+  <si>
+    <t>taseliai klojiniams</t>
+  </si>
+  <si>
+    <t>taseliai atraminiai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,7 +490,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Raimondas" refreshedDate="42966.914955324071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F51" sheet="samata"/>
+    <worksheetSource ref="B1:G51" sheet="samata"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="etapas" numFmtId="0">
@@ -811,8 +923,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
       <items count="9">
@@ -883,11 +995,62 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="44">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
     <i>
       <x v="13"/>
     </i>
     <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
       <x v="18"/>
     </i>
     <i>
@@ -900,16 +1063,67 @@
       <x v="21"/>
     </i>
     <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
       <x v="27"/>
     </i>
     <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
       <x v="30"/>
     </i>
     <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
       <x v="35"/>
     </i>
     <i>
       <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
     </i>
     <i t="grand">
       <x/>
@@ -919,7 +1133,7 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0" item="2" hier="-1"/>
+    <pageField fld="0" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of suma" fld="4" baseField="0" baseItem="1762592"/>
@@ -976,7 +1190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1011,7 +1225,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1221,877 +1435,1011 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>440</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>D4*E4</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>6.5</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5">
+        <f>D5*E5</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>800</v>
+      </c>
+      <c r="E6">
+        <v>0.7</v>
+      </c>
+      <c r="F6">
+        <f>D6*E6</f>
+        <v>560</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>0.24</v>
+      </c>
+      <c r="F7">
+        <f>D7*E7</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <f>D8*E8</f>
+        <v>2400</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1200</v>
+      </c>
+      <c r="F9">
+        <f>D9*E9</f>
+        <v>1200</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <f>D10*E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1000</v>
+      </c>
+      <c r="F11">
+        <f>D11*E11</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
+      <c r="F12">
+        <f>D12*E12</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1500</v>
+      </c>
+      <c r="F13">
+        <f>D13*E13</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <f>D14*E14</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <f>D15*E15</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1500</v>
+      </c>
+      <c r="F16">
+        <f>D16*E16</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>2.4</v>
+      </c>
+      <c r="E17">
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <f>D17*E17</f>
+        <v>192</v>
+      </c>
+      <c r="G17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
+      <c r="E18">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <f>D18*E18</f>
+        <v>320</v>
+      </c>
+      <c r="G18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>2.5</v>
+      </c>
+      <c r="F19">
+        <f>D19*E19</f>
+        <v>125</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <f>D20*E20</f>
+        <v>240</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <f>D21*E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22">
+        <v>180</v>
+      </c>
+      <c r="E22">
+        <v>0.6</v>
+      </c>
+      <c r="F22">
+        <f>D22*E22</f>
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23">
+        <v>192</v>
+      </c>
+      <c r="E23">
+        <v>0.6</v>
+      </c>
+      <c r="F23">
+        <f>D23*E23</f>
+        <v>115.19999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>200</v>
+      </c>
+      <c r="E24">
+        <v>0.22</v>
+      </c>
+      <c r="F24">
+        <f>D24*E24</f>
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>55</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E43" si="0">C2*D2</f>
-        <v>440</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F25">
+        <f>D25*E25</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>60</v>
+      </c>
+      <c r="F26">
+        <f>D26*E26</f>
+        <v>1200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <f>D27*E27</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>50</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <f>D28*E28</f>
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>70</v>
+      </c>
+      <c r="F29">
+        <f>D29*E29</f>
+        <v>2450</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>1.25</v>
+      </c>
+      <c r="E30">
+        <v>80</v>
+      </c>
+      <c r="F30">
+        <f>D30*E30</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>0.45</v>
+      </c>
+      <c r="F31">
+        <f>D31*E31</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>22</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <f>D32*E32</f>
+        <v>880</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>80</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <f>D33*E33</f>
+        <v>480</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>110</v>
+      </c>
+      <c r="E34">
+        <v>0.81</v>
+      </c>
+      <c r="F34">
+        <f>D34*E34</f>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="G34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35">
+        <v>0.33</v>
+      </c>
+      <c r="F35">
+        <f>D35*E35</f>
+        <v>165</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>70</v>
+      </c>
+      <c r="E36">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F36">
+        <f>D36*E36</f>
+        <v>38.5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>130</v>
+      </c>
+      <c r="F37">
+        <f>D37*E37</f>
+        <v>390</v>
+      </c>
+      <c r="G37" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+    </row>
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>1.5</v>
+      </c>
+      <c r="E38">
+        <v>150</v>
+      </c>
+      <c r="F38">
+        <f>D38*E38</f>
+        <v>225</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>1.2</v>
+      </c>
+      <c r="E39">
+        <v>150</v>
+      </c>
+      <c r="F39">
+        <f>D39*E39</f>
+        <v>180</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>132</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <f>D40*E40</f>
+        <v>924</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+      <c r="F41">
+        <f>D41*E41</f>
+        <v>1050</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
         <v>80</v>
       </c>
-      <c r="D3">
-        <v>2.5</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>0.9</v>
+      </c>
+      <c r="F42">
+        <f>D42*E42</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43">
+        <f>D43*E43</f>
         <v>20</v>
       </c>
-      <c r="C5">
-        <v>6.5</v>
-      </c>
-      <c r="D5">
-        <v>80</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44">
+        <v>1.6</v>
+      </c>
+      <c r="E44">
+        <v>55</v>
+      </c>
+      <c r="F44">
+        <f>D44*E44</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45">
+        <v>0.8</v>
+      </c>
+      <c r="E45">
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <f>D45*E45</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46">
         <v>30</v>
       </c>
-      <c r="C6">
-        <v>800</v>
-      </c>
-      <c r="D6">
-        <v>0.7</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>80</v>
-      </c>
-      <c r="D7">
-        <v>0.24</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8">
-        <v>80</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1200</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10">
-        <v>2000</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2000</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1500</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1000</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>300</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>80</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E46">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
-        <v>2.7</v>
-      </c>
-      <c r="D17">
-        <v>80</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="F46">
+        <f>D46*E46</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>0.5</v>
+      </c>
+      <c r="F47">
+        <f>D47*E47</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48">
+        <v>32</v>
+      </c>
+      <c r="E48">
+        <v>5.2</v>
+      </c>
+      <c r="F48">
+        <f>D48*E48</f>
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49">
+        <v>120</v>
+      </c>
+      <c r="F49">
+        <f>D49*E49</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50">
+        <v>0.4</v>
+      </c>
+      <c r="E50">
+        <v>120</v>
+      </c>
+      <c r="F50">
+        <f>D50*E50</f>
         <v>48</v>
       </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>2.5</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>30</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>200</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>170</v>
-      </c>
-      <c r="D21">
-        <v>0.6</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
-        <v>144</v>
-      </c>
-      <c r="D22">
-        <v>0.4</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>57.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>150</v>
-      </c>
-      <c r="D23">
-        <v>0.22</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24">
-        <v>1.5</v>
-      </c>
-      <c r="D24">
-        <v>55</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-      <c r="D25">
-        <v>60</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>60</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28">
-        <v>22</v>
-      </c>
-      <c r="D28">
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29">
-        <v>80</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>35</v>
-      </c>
-      <c r="D30">
-        <v>70</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>2450</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31">
-        <v>1.25</v>
-      </c>
-      <c r="D31">
-        <v>80</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <v>0.45</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33">
-        <v>110</v>
-      </c>
-      <c r="D33">
-        <v>0.81</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="F33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34">
-        <v>500</v>
-      </c>
-      <c r="D34">
-        <v>0.33</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="F34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35">
-        <v>70</v>
-      </c>
-      <c r="D35">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>130</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>390</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37">
-        <v>1.5</v>
-      </c>
-      <c r="D37">
-        <v>150</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="F37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38">
-        <v>1.2</v>
-      </c>
-      <c r="D38">
-        <v>150</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="F38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39">
-        <v>132</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>924</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40">
-        <v>30</v>
-      </c>
-      <c r="D40">
-        <v>35</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
-      <c r="F40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41">
-        <v>100</v>
-      </c>
-      <c r="D41">
-        <v>0.9</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42">
-        <v>100</v>
-      </c>
-      <c r="D42">
-        <v>0.2</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1500</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52">
-        <f>SUM(E2:E51)</f>
-        <v>23211.9</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J43">
+  <autoFilter ref="B1:K47">
     <filterColumn colId="0">
       <filters>
-        <filter val="stogas"/>
+        <filter val="pamatas"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState ref="B2:G43">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2099,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,10 +2461,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2124,54 +2472,54 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>56</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -2179,21 +2527,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
         <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>0.24</v>
@@ -2201,42 +2549,90 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>0.45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <sortState ref="A2:C10">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="44" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -2244,98 +2640,494 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4">
-        <v>200</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
-        <v>57.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>102</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
-        <v>216</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4">
-        <v>160</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4">
-        <v>82.5</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C11" s="4">
-        <v>33</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="4">
+        <v>89.100000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="4">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="4">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="4">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="4">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="4">
-        <v>1156.0999999999999</v>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="4">
+        <v>23211.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/paskaitu medziaga/naujas namas/namo skaiciuokle.xlsx
+++ b/paskaitu medziaga/naujas namas/namo skaiciuokle.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVELOPER\JavaKursai\paskaitu medziaga\naujas namas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18480" windowHeight="11835"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18480" windowHeight="11835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="samata" sheetId="1" r:id="rId1"/>
@@ -15,17 +20,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'medziagu kaina'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samata!$B$1:$K$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samata!$B$1:$K$81</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
   <si>
     <t>medziagos</t>
   </si>
@@ -48,18 +53,9 @@
     <t>armatura 12 ir 10 mm</t>
   </si>
   <si>
-    <t>pamato armatura 12</t>
-  </si>
-  <si>
-    <t>pamato armatura 10</t>
-  </si>
-  <si>
     <t>sujungimu armatura 6</t>
   </si>
   <si>
-    <t>duju silikatas 25 mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">isores blokeliai </t>
   </si>
   <si>
@@ -81,24 +77,15 @@
     <t>betonas grindims</t>
   </si>
   <si>
-    <t>gegnes 250x50, kubo kaina 150 e</t>
-  </si>
-  <si>
     <t>mediena stogui gegnes</t>
   </si>
   <si>
-    <t xml:space="preserve">mediena stori brusai </t>
-  </si>
-  <si>
     <t>150x150 24 m</t>
   </si>
   <si>
     <t>bruseliai 50x50</t>
   </si>
   <si>
-    <t>50x50x440 m</t>
-  </si>
-  <si>
     <t>stogo skarda</t>
   </si>
   <si>
@@ -144,9 +131,6 @@
     <t>skiedinys blokeliams</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>traktorius nuoma</t>
   </si>
   <si>
@@ -219,9 +203,6 @@
     <t>plevele juoda 200 mkr</t>
   </si>
   <si>
-    <t>polistirolas is apacios 15 cm aukscio</t>
-  </si>
-  <si>
     <t>polistirenas isores sienom</t>
   </si>
   <si>
@@ -231,9 +212,6 @@
     <t>virsutinis rostverkas betonas</t>
   </si>
   <si>
-    <t>virsutinis rostvekas metalai</t>
-  </si>
-  <si>
     <t>armatura 10</t>
   </si>
   <si>
@@ -261,18 +239,12 @@
     <t>0,55 uz 1 m</t>
   </si>
   <si>
-    <t>grezinio iranga</t>
-  </si>
-  <si>
     <t>elektra</t>
   </si>
   <si>
     <t>difuzine plevele</t>
   </si>
   <si>
-    <t>juoda plevele</t>
-  </si>
-  <si>
     <t>sildymo iranga</t>
   </si>
   <si>
@@ -418,12 +390,114 @@
   </si>
   <si>
     <t>taseliai atraminiai</t>
+  </si>
+  <si>
+    <t>1000 kg, 4,23/25 kg</t>
+  </si>
+  <si>
+    <t>saramu betonas</t>
+  </si>
+  <si>
+    <t>apie  16 m</t>
+  </si>
+  <si>
+    <t>virsutinis rostvekas metalai 12 mm</t>
+  </si>
+  <si>
+    <t>akytas betonas 25 mm</t>
+  </si>
+  <si>
+    <t>saramu metalai</t>
+  </si>
+  <si>
+    <t>katilines pertvara</t>
+  </si>
+  <si>
+    <t>muro armavimo tinklas</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>70 cm</t>
+  </si>
+  <si>
+    <t>inkarai ant virsutinio ziedo</t>
+  </si>
+  <si>
+    <t>gegnes 250x50, kubo kaina 120 e, 40 vnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verzles, vinys, </t>
+  </si>
+  <si>
+    <t>kampai</t>
+  </si>
+  <si>
+    <t>murlotai</t>
+  </si>
+  <si>
+    <t>50x50x500 m</t>
+  </si>
+  <si>
+    <t>lentos po skarda</t>
+  </si>
+  <si>
+    <t>srieginiai strypai</t>
+  </si>
+  <si>
+    <t>plevele melyna</t>
+  </si>
+  <si>
+    <t>apskardinimas</t>
+  </si>
+  <si>
+    <t>vejalente skarda</t>
+  </si>
+  <si>
+    <t>lietvamzdiai</t>
+  </si>
+  <si>
+    <t>latakai</t>
+  </si>
+  <si>
+    <t>apskardinimo detales</t>
+  </si>
+  <si>
+    <t>1 m kaina 4,25</t>
+  </si>
+  <si>
+    <t>1 m kaina 5,1</t>
+  </si>
+  <si>
+    <t>sutankinimo irenginys</t>
+  </si>
+  <si>
+    <t>kompensacine juosta</t>
+  </si>
+  <si>
+    <t>kanalizacijos nusesdinimo ziedai</t>
+  </si>
+  <si>
+    <t>kanalizacijos vamzdziai</t>
+  </si>
+  <si>
+    <t>1 m kaina 3 eur</t>
+  </si>
+  <si>
+    <t>vidaus kanalizacija</t>
+  </si>
+  <si>
+    <t>katilo pajungimas</t>
+  </si>
+  <si>
+    <t>vandens-sildymo iranga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -488,13 +562,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Raimondas" refreshedDate="42966.914955324071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Raimondas" refreshedDate="42971.089816550928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="81">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:G51" sheet="samata"/>
+    <worksheetSource ref="B1:G100" sheet="samata"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="etapas" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="7">
         <s v="grindys"/>
         <s v="inzinerija"/>
         <s v="pamatas"/>
@@ -502,64 +576,89 @@
         <s v="sienos apsiltinimas"/>
         <s v="stogas"/>
         <m/>
-        <s v="sienos " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="medziagos" numFmtId="0">
-      <sharedItems containsBlank="1" count="43">
+      <sharedItems containsBlank="1" count="69">
         <s v="polistirolas grindims"/>
         <s v="armavimo tinklas"/>
         <s v="betonavimas darbai"/>
         <s v="betonas grindims"/>
         <s v="grindinis sildymo vamzdis"/>
         <s v="plevele juoda 200 mkr"/>
+        <s v="sutankinimo irenginys"/>
+        <s v="kompensacine juosta"/>
         <s v="vandens grezinys"/>
         <s v="valymo irenginys"/>
         <s v="granulinis katilas"/>
         <s v="malku katilas"/>
-        <s v="grezinio iranga"/>
+        <m/>
         <s v="elektra"/>
         <s v="sildymo iranga"/>
         <s v="boileris"/>
+        <s v="projektas namo"/>
+        <s v="kanalizacijos nusesdinimo ziedai"/>
+        <s v="kanalizacijos vamzdziai"/>
+        <s v="vidaus kanalizacija"/>
+        <s v="katilo pajungimas"/>
+        <s v="vandens-sildymo iranga"/>
         <s v="pamato poliai betonas"/>
         <s v="pamato perimetras betonas"/>
         <s v="savivartis betonui atvezti"/>
         <s v="traktorius nuoma"/>
         <s v="klojiniu nuoma"/>
-        <s v="pamato armatura 12"/>
-        <s v="pamato armatura 10"/>
+        <s v="pamato rostverko armatura 12"/>
+        <s v="poliu armatura 12 mm"/>
         <s v="sujungimu armatura 6"/>
-        <s v="polistirolas is apacios 15 cm aukscio"/>
+        <s v="polistirolas is apacios 10 cm aukscio"/>
+        <s v="apsiltinimas is isores"/>
+        <s v="apsiltinimas is vidaus"/>
+        <s v="smelis uzpylimui"/>
+        <s v="juosta pamatine"/>
+        <s v="osb klojiniams"/>
+        <s v="taseliai klojiniams"/>
+        <s v="taseliai atraminiai"/>
         <s v="isores blokeliai "/>
         <s v="vidine nesanti blokeliu pertvara"/>
         <s v="skiedinys blokeliams"/>
+        <s v="langai"/>
+        <s v="virsutinis rostverkas betonas"/>
+        <s v="virsutinis rostvekas metalai 12 mm"/>
+        <s v="saramu betonas"/>
+        <s v="saramu metalai"/>
+        <s v="katilines pertvara"/>
+        <s v="muro armavimo tinklas"/>
+        <s v="inkarai ant virsutinio ziedo"/>
         <s v="polistirenas isores sienom"/>
         <s v="polistorolo isores tinkas ir klijai polistirolo"/>
-        <s v="langai"/>
-        <s v="virsutinis rostverkas betonas"/>
-        <s v="virsutinis rostvekas metalai"/>
         <s v="plastikinis armavimo tinklelis"/>
         <s v="plastikines polistirolo smeiges"/>
         <s v="armavimo kampai"/>
         <s v="mediena stogui gegnes"/>
-        <s v="mediena stori brusai "/>
+        <s v="lentos po skarda"/>
         <s v="bruseliai 50x50"/>
         <s v="stogo skarda"/>
         <s v="stogo vata"/>
         <s v="difuzine plevele"/>
-        <s v="juoda plevele"/>
-        <s v="projektas namo"/>
-        <m/>
+        <s v="plevele melyna"/>
+        <s v="murlotai"/>
+        <s v="verzles, vinys, "/>
+        <s v="kampai"/>
+        <s v="srieginiai strypai"/>
+        <s v="apskardinimas"/>
+        <s v="lietvamzdiai"/>
+        <s v="latakai"/>
+        <s v="apskardinimo detales"/>
       </sharedItems>
     </cacheField>
     <cacheField name="kiekis" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="800"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1000"/>
     </cacheField>
     <cacheField name="kaina" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.2" maxValue="2000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.17" maxValue="4000"/>
     </cacheField>
     <cacheField name="suma" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="2450"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="4000"/>
     </cacheField>
     <cacheField name="paaiskinimas" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -574,86 +673,86 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="43">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="8"/>
+    <n v="10"/>
     <n v="55"/>
-    <n v="440"/>
+    <n v="550"/>
     <s v="10 mm grindims"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="80"/>
+    <n v="100"/>
     <n v="2.5"/>
-    <n v="200"/>
+    <n v="250"/>
     <m/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="80"/>
+    <n v="100"/>
     <n v="3"/>
-    <n v="240"/>
+    <n v="300"/>
     <m/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="6.5"/>
+    <n v="8"/>
     <n v="80"/>
-    <n v="520"/>
+    <n v="640"/>
     <m/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <n v="800"/>
+    <n v="100"/>
     <n v="0.7"/>
-    <n v="560"/>
+    <n v="70"/>
     <s v="skaiciuota kas 10 cm"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="80"/>
+    <n v="100"/>
     <n v="0.24"/>
-    <n v="19.2"/>
+    <n v="24"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="30"/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="20"/>
+    <n v="20"/>
     <m/>
   </r>
   <r>
     <x v="1"/>
-    <x v="6"/>
-    <n v="80"/>
-    <n v="30"/>
-    <n v="2400"/>
+    <x v="8"/>
+    <n v="1"/>
+    <n v="4000"/>
+    <n v="4000"/>
     <s v="grezimo kaina apie 30 e/m"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="7"/>
+    <x v="9"/>
     <n v="1"/>
     <n v="1200"/>
     <n v="1200"/>
     <s v="valymo irenginys apie 1200 e"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <m/>
-    <n v="2000"/>
-    <n v="0"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <n v="1"/>
-    <n v="1000"/>
-    <n v="1000"/>
-    <m/>
   </r>
   <r>
     <x v="1"/>
@@ -666,6 +765,22 @@
   <r>
     <x v="1"/>
     <x v="11"/>
+    <m/>
+    <n v="1000"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
     <n v="1"/>
     <n v="1500"/>
     <n v="1500"/>
@@ -673,7 +788,7 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="12"/>
+    <x v="14"/>
     <n v="1"/>
     <n v="1000"/>
     <n v="1000"/>
@@ -681,31 +796,79 @@
   </r>
   <r>
     <x v="1"/>
-    <x v="13"/>
+    <x v="15"/>
     <n v="1"/>
     <n v="300"/>
     <n v="300"/>
     <m/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="1500"/>
+    <n v="1500"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <n v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="30"/>
+    <s v="1 m kaina 3 eur"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <n v="20"/>
+    <n v="1.4"/>
+    <n v="28"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="500"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1000"/>
+    <n v="1000"/>
+    <m/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="14"/>
-    <n v="2"/>
+    <x v="22"/>
+    <n v="2.4"/>
     <n v="80"/>
-    <n v="160"/>
-    <s v="D25, 14 vnt po 3 m"/>
+    <n v="192"/>
+    <s v="D25, 16 vnt po 3 m, vienas polis 0,147 m3"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="15"/>
-    <n v="2.7"/>
+    <x v="23"/>
+    <n v="4"/>
     <n v="80"/>
-    <n v="216"/>
-    <s v="25 plocio*30 cm aukscio, ilgis pamato 36 m"/>
+    <n v="320"/>
+    <s v="25 plocio*40 cm aukscio, ilgis pamato 40 m"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="16"/>
+    <x v="24"/>
     <n v="50"/>
     <n v="2.5"/>
     <n v="125"/>
@@ -713,79 +876,199 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="17"/>
+    <x v="25"/>
+    <n v="8"/>
+    <n v="30"/>
+    <n v="240"/>
+    <s v="val 30 eur"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="26"/>
+    <n v="0"/>
+    <n v="200"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="27"/>
+    <n v="180"/>
+    <n v="0.6"/>
+    <n v="108"/>
+    <s v="armatura 12 ir 10 mm"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="28"/>
+    <n v="192"/>
+    <n v="0.6"/>
+    <n v="115.19999999999999"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="29"/>
+    <n v="200"/>
+    <n v="0.22"/>
+    <n v="44"/>
+    <s v="vidurkis 80 cm vienas sujungimui"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="30"/>
+    <n v="1"/>
+    <n v="55"/>
+    <n v="55"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="31"/>
+    <n v="1.6"/>
+    <n v="55"/>
+    <n v="88"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="32"/>
+    <n v="0.8"/>
+    <n v="55"/>
+    <n v="44"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="33"/>
+    <n v="30"/>
+    <n v="7"/>
+    <n v="210"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="34"/>
+    <n v="40"/>
+    <n v="0.5"/>
+    <n v="20"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="35"/>
+    <n v="32"/>
+    <n v="5.2"/>
+    <n v="166.4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="36"/>
+    <n v="0.2"/>
+    <n v="120"/>
+    <n v="24"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="37"/>
+    <n v="0.4"/>
+    <n v="120"/>
+    <n v="48"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="38"/>
+    <n v="25"/>
+    <n v="60"/>
+    <n v="1500"/>
+    <s v="akytas betonas 25 mm"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="39"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="40"/>
+    <n v="1000"/>
+    <n v="0.17"/>
+    <n v="170"/>
+    <s v="1000 kg, 4,23/25 kg"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="41"/>
+    <n v="35"/>
+    <n v="70"/>
+    <n v="2450"/>
+    <s v="kvadratas apie 70 e"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="42"/>
+    <n v="2.5"/>
+    <n v="80"/>
+    <n v="200"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="43"/>
+    <n v="80"/>
+    <n v="0.45"/>
+    <n v="36"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="44"/>
+    <n v="1.2"/>
+    <n v="80"/>
+    <n v="96"/>
+    <s v="apie  16 m"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="45"/>
+    <n v="80"/>
+    <n v="0.45"/>
+    <n v="36"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="46"/>
     <n v="6"/>
-    <n v="30"/>
-    <n v="180"/>
-    <s v="val 30 eur"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="18"/>
-    <n v="1"/>
-    <n v="200"/>
-    <n v="200"/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="19"/>
-    <n v="170"/>
-    <n v="0.6"/>
-    <n v="102"/>
-    <s v="armatura 12 ir 10 mm"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="20"/>
-    <n v="144"/>
-    <n v="0.4"/>
-    <n v="57.6"/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="21"/>
-    <n v="150"/>
-    <n v="0.22"/>
-    <n v="33"/>
-    <m/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="22"/>
+    <n v="60"/>
+    <n v="360"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="47"/>
+    <n v="0"/>
     <n v="1.5"/>
-    <n v="55"/>
-    <n v="82.5"/>
+    <n v="0"/>
     <m/>
   </r>
   <r>
     <x v="3"/>
-    <x v="23"/>
+    <x v="48"/>
     <n v="20"/>
-    <n v="60"/>
-    <n v="1200"/>
-    <s v="duju silikatas 25 mm"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="24"/>
-    <n v="10"/>
-    <n v="60"/>
-    <n v="600"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="25"/>
-    <n v="50"/>
-    <n v="5"/>
-    <n v="250"/>
-    <s v="?"/>
+    <n v="2"/>
+    <n v="40"/>
+    <s v="70 cm"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="26"/>
+    <x v="49"/>
     <n v="22"/>
     <n v="40"/>
     <n v="880"/>
@@ -793,39 +1076,15 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="27"/>
+    <x v="50"/>
     <n v="80"/>
     <n v="6"/>
     <n v="480"/>
     <s v="5 kg/m2 ir klijuojant ir armuojant, 25 kg kaina 6 eur"/>
   </r>
   <r>
-    <x v="3"/>
-    <x v="28"/>
-    <n v="35"/>
-    <n v="70"/>
-    <n v="2450"/>
-    <s v="kvadratas apie 70 e"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="29"/>
-    <n v="1.25"/>
-    <n v="80"/>
-    <n v="100"/>
-    <m/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="30"/>
-    <n v="100"/>
-    <n v="0.45"/>
-    <n v="45"/>
-    <m/>
-  </r>
-  <r>
     <x v="4"/>
-    <x v="31"/>
+    <x v="51"/>
     <n v="110"/>
     <n v="0.81"/>
     <n v="89.100000000000009"/>
@@ -833,7 +1092,7 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="32"/>
+    <x v="52"/>
     <n v="500"/>
     <n v="0.33"/>
     <n v="165"/>
@@ -841,7 +1100,7 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="33"/>
+    <x v="53"/>
     <n v="70"/>
     <n v="0.55000000000000004"/>
     <n v="38.5"/>
@@ -849,71 +1108,215 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="34"/>
+    <x v="54"/>
     <n v="3"/>
+    <n v="120"/>
+    <n v="360"/>
+    <s v="gegnes 250x50, kubo kaina 120 e, 40 vnt"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="55"/>
+    <n v="1.8"/>
+    <n v="120"/>
+    <n v="216"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="56"/>
+    <n v="1.2"/>
+    <n v="120"/>
+    <n v="144"/>
+    <s v="50x50x500 m"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="57"/>
+    <n v="144"/>
+    <n v="7"/>
+    <n v="1008"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="58"/>
+    <n v="36"/>
+    <n v="35"/>
+    <n v="1260"/>
+    <s v="storis 30 cm"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="59"/>
+    <n v="144"/>
+    <n v="0.9"/>
+    <n v="129.6"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="60"/>
     <n v="130"/>
-    <n v="390"/>
-    <s v="gegnes 250x50, kubo kaina 150 e"/>
+    <n v="0.35"/>
+    <n v="45.5"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
-    <x v="35"/>
-    <n v="1.5"/>
-    <n v="150"/>
-    <n v="225"/>
+    <x v="61"/>
+    <n v="0.54"/>
+    <n v="120"/>
+    <n v="64.800000000000011"/>
     <s v="150x150 24 m"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="36"/>
-    <n v="1.2"/>
-    <n v="150"/>
-    <n v="180"/>
-    <s v="50x50x440 m"/>
+    <x v="62"/>
+    <n v="1"/>
+    <n v="100"/>
+    <n v="100"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
-    <x v="37"/>
-    <n v="132"/>
-    <n v="7"/>
-    <n v="924"/>
+    <x v="63"/>
+    <n v="100"/>
+    <n v="0.8"/>
+    <n v="80"/>
     <m/>
   </r>
   <r>
     <x v="5"/>
-    <x v="38"/>
-    <n v="30"/>
-    <n v="35"/>
-    <n v="1050"/>
-    <s v="storis 30 cm"/>
+    <x v="64"/>
+    <n v="1"/>
+    <n v="50"/>
+    <n v="50"/>
+    <m/>
   </r>
   <r>
     <x v="5"/>
-    <x v="39"/>
+    <x v="65"/>
+    <n v="60"/>
+    <n v="3.5"/>
+    <n v="210"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="66"/>
+    <n v="12"/>
+    <n v="5.0999999999999996"/>
+    <n v="61.199999999999996"/>
+    <s v="1 m kaina 5,1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="67"/>
+    <n v="24"/>
+    <n v="4.25"/>
+    <n v="102"/>
+    <s v="1 m kaina 4,25"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="68"/>
+    <n v="1"/>
     <n v="100"/>
-    <n v="0.9"/>
-    <n v="90"/>
-    <m/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="40"/>
     <n v="100"/>
-    <n v="0.2"/>
-    <n v="20"/>
-    <m/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="41"/>
-    <n v="1"/>
-    <n v="1500"/>
-    <n v="1500"/>
     <m/>
   </r>
   <r>
     <x v="6"/>
-    <x v="42"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
     <m/>
     <m/>
     <m/>
@@ -923,16 +1326,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
-      <items count="9">
+      <items count="8">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="7"/>
         <item x="5"/>
         <item x="6"/>
         <item x="4"/>
@@ -940,50 +1342,76 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="44">
-        <item x="33"/>
+      <items count="70">
+        <item x="53"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
+        <item x="15"/>
+        <item x="56"/>
+        <item x="59"/>
         <item x="13"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="11"/>
-        <item x="8"/>
         <item x="10"/>
         <item x="4"/>
+        <item x="38"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="11"/>
+        <item x="54"/>
         <item x="23"/>
+        <item x="22"/>
+        <item x="52"/>
+        <item x="51"/>
+        <item x="5"/>
+        <item x="49"/>
+        <item x="0"/>
+        <item x="50"/>
+        <item x="16"/>
+        <item x="24"/>
+        <item x="14"/>
         <item x="40"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="29"/>
+        <item x="25"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="39"/>
+        <item x="42"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="17"/>
         <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="27"/>
         <item x="28"/>
-        <item x="9"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
         <item x="34"/>
         <item x="35"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="5"/>
-        <item x="26"/>
-        <item x="0"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="41"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="25"/>
+        <item x="36"/>
         <item x="37"/>
-        <item x="38"/>
-        <item x="21"/>
-        <item x="17"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="24"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="55"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -995,7 +1423,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="70">
     <i>
       <x/>
     </i>
@@ -1124,6 +1552,84 @@
     </i>
     <i>
       <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
     </i>
     <i t="grand">
       <x/>
@@ -1190,7 +1696,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1225,7 +1731,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1434,11 +1940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,10 +1959,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1478,204 +1983,207 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>55</v>
       </c>
       <c r="F2">
         <f>D2*E2</f>
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>2.5</v>
       </c>
       <c r="F3">
         <f>D3*E3</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
         <f>D4*E4</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>80</v>
       </c>
       <c r="F5">
         <f>D5*E5</f>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0.7</v>
       </c>
       <c r="F6">
         <f>D6*E6</f>
-        <v>560</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0.24</v>
       </c>
       <c r="F7">
         <f>D7*E7</f>
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8">
         <f>D8*E8</f>
-        <v>2400</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <f>D9*E9</f>
-        <v>1200</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F10">
         <f>D10*E10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F11">
         <f>D11*E11</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1200</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1688,756 +2196,1179 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F13">
         <f>D13*E13</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <f>D14*E14</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="F15">
         <f>D15*E15</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="F16">
         <f>D16*E16</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D17">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="F17">
         <f>D17*E17</f>
-        <v>192</v>
-      </c>
-      <c r="G17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" t="s">
-        <v>112</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>80</v>
+        <v>1500</v>
       </c>
       <c r="F18">
         <f>D18*E18</f>
-        <v>320</v>
-      </c>
-      <c r="G18" t="s">
-        <v>113</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>2.5</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <f>D19*E19</f>
-        <v>125</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <f>D20*E20</f>
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>200</v>
+        <v>1.4</v>
       </c>
       <c r="F21">
         <f>D21*E21</f>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="D22">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0.6</v>
+        <v>500</v>
       </c>
       <c r="F22">
         <f>D22*E22</f>
-        <v>108</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="D23">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.6</v>
+        <v>1000</v>
       </c>
       <c r="F23">
         <f>D23*E23</f>
-        <v>115.19999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>200</v>
+        <v>2.4</v>
       </c>
       <c r="E24">
-        <v>0.22</v>
+        <v>80</v>
       </c>
       <c r="F24">
         <f>D24*E24</f>
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>105</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F25">
         <f>D25*E25</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>2.5</v>
       </c>
       <c r="F26">
         <f>D26*E26</f>
-        <v>1200</v>
+        <v>125</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <f>D27*E27</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F28">
         <f>D28*E28</f>
-        <v>250</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="E29">
-        <v>70</v>
+        <v>0.6</v>
       </c>
       <c r="F29">
         <f>D29*E29</f>
-        <v>2450</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D30">
-        <v>1.25</v>
+        <v>192</v>
       </c>
       <c r="E30">
-        <v>80</v>
+        <v>0.6</v>
       </c>
       <c r="F30">
         <f>D30*E30</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>115.19999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E31">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="F31">
         <f>D31*E31</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <f>D32*E32</f>
-        <v>880</v>
-      </c>
-      <c r="G32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>80</v>
+        <v>1.6</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <f>D33*E33</f>
-        <v>480</v>
-      </c>
-      <c r="G33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D34">
-        <v>110</v>
+        <v>0.8</v>
       </c>
       <c r="E34">
-        <v>0.81</v>
+        <v>55</v>
       </c>
       <c r="F34">
         <f>D34*E34</f>
-        <v>89.100000000000009</v>
-      </c>
-      <c r="G34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D35">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="E35">
-        <v>0.33</v>
+        <v>7</v>
       </c>
       <c r="F35">
         <f>D35*E35</f>
-        <v>165</v>
-      </c>
-      <c r="G35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D36">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E36">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="F36">
         <f>D36*E36</f>
-        <v>38.5</v>
-      </c>
-      <c r="G36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>130</v>
+        <v>5.2</v>
       </c>
       <c r="F37">
         <f>D37*E37</f>
-        <v>390</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D38">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="E38">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F38">
         <f>D38*E38</f>
-        <v>225</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="D39">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="E39">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F39">
         <f>D39*E39</f>
-        <v>180</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F40">
         <f>D40*E40</f>
-        <v>924</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+      <c r="G40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <f>D41*E41</f>
-        <v>1050</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E42">
-        <v>0.9</v>
+        <v>0.17</v>
       </c>
       <c r="F42">
         <f>D42*E42</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>0.2</v>
+        <v>70</v>
       </c>
       <c r="F43">
         <f>D43*E43</f>
-        <v>20</v>
+        <v>2450</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="D44">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="E44">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F44">
         <f>D44*E44</f>
-        <v>88</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D45">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="E45">
-        <v>55</v>
+        <v>0.45</v>
       </c>
       <c r="F45">
         <f>D45*E45</f>
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>1.2</v>
       </c>
       <c r="E46">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="F46">
         <f>D46*E46</f>
-        <v>210</v>
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D47">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E47">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F47">
         <f>D47*E47</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D48">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>5.2</v>
+        <v>60</v>
       </c>
       <c r="F48">
         <f>D48*E48</f>
-        <v>166.4</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D49">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>120</v>
+        <v>1.5</v>
       </c>
       <c r="F49">
         <f>D49*E49</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>130</v>
       </c>
       <c r="D50">
-        <v>0.4</v>
+        <v>20</v>
       </c>
       <c r="E50">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <f>D50*E50</f>
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="G50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <f>D51*E51</f>
+        <v>880</v>
+      </c>
+      <c r="G51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52">
+        <v>80</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <f>D52*E52</f>
+        <v>480</v>
+      </c>
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>110</v>
+      </c>
+      <c r="E53">
+        <v>0.81</v>
+      </c>
+      <c r="F53">
+        <f>D53*E53</f>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="G53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54">
+        <v>500</v>
+      </c>
+      <c r="E54">
+        <v>0.33</v>
+      </c>
+      <c r="F54">
+        <f>D54*E54</f>
+        <v>165</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55">
+        <v>70</v>
+      </c>
+      <c r="E55">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F55">
+        <f>D55*E55</f>
+        <v>38.5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>120</v>
+      </c>
+      <c r="F56">
+        <f>D56*E56</f>
+        <v>360</v>
+      </c>
+      <c r="G56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57">
+        <v>1.8</v>
+      </c>
+      <c r="E57">
+        <v>120</v>
+      </c>
+      <c r="F57">
+        <f>D57*E57</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>1.2</v>
+      </c>
+      <c r="E58">
+        <v>120</v>
+      </c>
+      <c r="F58">
+        <f>D58*E58</f>
+        <v>144</v>
+      </c>
+      <c r="G58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>144</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <f>D59*E59</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60">
+        <v>36</v>
+      </c>
+      <c r="E60">
+        <v>35</v>
+      </c>
+      <c r="F60">
+        <f>D60*E60</f>
+        <v>1260</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61">
+        <v>144</v>
+      </c>
+      <c r="E61">
+        <v>0.9</v>
+      </c>
+      <c r="F61">
+        <f>D61*E61</f>
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62">
+        <v>130</v>
+      </c>
+      <c r="E62">
+        <v>0.35</v>
+      </c>
+      <c r="F62">
+        <f>D62*E62</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63">
+        <v>0.54</v>
+      </c>
+      <c r="E63">
+        <v>120</v>
+      </c>
+      <c r="F63">
+        <f>D63*E63</f>
+        <v>64.800000000000011</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <f>D64*E64</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+      <c r="E65">
+        <v>0.8</v>
+      </c>
+      <c r="F65">
+        <f>D65*E65</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <f>D66*E66</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+      <c r="E67">
+        <v>3.5</v>
+      </c>
+      <c r="F67">
+        <f>D67*E67</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F68">
+        <f>D68*E68</f>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="G68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <v>4.25</v>
+      </c>
+      <c r="F69">
+        <f>D69*E69</f>
+        <v>102</v>
+      </c>
+      <c r="G69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <f>D70*E70</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f>D71*E71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f>D72*E72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f>D73*E73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f>D74*E74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f>D75*E75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f>D76*E76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f>D77*E77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f>D78*E78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f>D79*E79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f>D80*E80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f>D81*E81</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K47">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="pamatas"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="B2:G43">
+  <autoFilter ref="B1:K81"/>
+  <sortState ref="A2:H81">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2447,10 +3378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,10 +3392,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -2472,10 +3403,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -2483,10 +3414,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>0.45</v>
@@ -2494,10 +3425,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>0.6</v>
@@ -2505,10 +3436,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>56</v>
@@ -2516,10 +3447,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>70</v>
@@ -2527,10 +3458,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>65</v>
@@ -2538,10 +3469,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>0.24</v>
@@ -2549,10 +3480,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>55</v>
@@ -2560,10 +3491,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>120</v>
@@ -2571,10 +3502,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -2582,10 +3513,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C12">
         <v>30</v>
@@ -2593,10 +3524,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -2604,13 +3535,46 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>5.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
@@ -2624,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C47"/>
+  <dimension ref="B1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,23 +3604,23 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4">
         <v>38.5</v>
@@ -2664,31 +3628,31 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
-        <v>520</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4">
         <v>300</v>
@@ -2696,23 +3660,23 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>180</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C10" s="4">
-        <v>90</v>
+        <v>129.6</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C11" s="4">
         <v>1500</v>
@@ -2720,292 +3684,503 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
-        <v>2000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4">
-        <v>560</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4">
-        <v>20</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4">
-        <v>2450</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4">
-        <v>1000</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4">
-        <v>390</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4">
-        <v>225</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4">
-        <v>57.6</v>
+        <v>89.100000000000009</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4">
-        <v>216</v>
+        <v>880</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4">
-        <v>160</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4">
-        <v>165</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4">
-        <v>89.100000000000009</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>19.2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4">
-        <v>880</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C30" s="4">
-        <v>440</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4">
-        <v>82.5</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4">
-        <v>480</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4">
-        <v>1500</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4">
-        <v>125</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4">
-        <v>250</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C37" s="4">
-        <v>924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4">
-        <v>1050</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C39" s="4">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="C41" s="4">
-        <v>1200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="C42" s="4">
-        <v>2400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C43" s="4">
-        <v>600</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C44" s="4">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C45" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1000</v>
+      </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C47" s="4">
-        <v>23211.9</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="4">
+        <v>115.19999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="4">
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="4">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="4">
+        <v>64.800000000000011</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="4">
+        <v>61.199999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="4">
+        <v>27313.300000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3024,37 +4199,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3077,57 +4252,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/paskaitu medziaga/naujas namas/namo skaiciuokle.xlsx
+++ b/paskaitu medziaga/naujas namas/namo skaiciuokle.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVELOPER\JavaKursai\paskaitu medziaga\naujas namas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18480" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18480" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="samata" sheetId="1" r:id="rId1"/>
@@ -20,17 +15,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'medziagu kaina'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samata!$B$1:$K$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">samata!$B$1:$K$92</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="158">
   <si>
     <t>medziagos</t>
   </si>
@@ -492,12 +487,24 @@
   </si>
   <si>
     <t>vandens-sildymo iranga</t>
+  </si>
+  <si>
+    <t>polistireno kepureles</t>
+  </si>
+  <si>
+    <t>cokolio profilis</t>
+  </si>
+  <si>
+    <t>garazo vartai</t>
+  </si>
+  <si>
+    <t>nuimame augalini sluoksni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,7 +569,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Raimondas" refreshedDate="42971.089816550928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="81">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Šiupienis, Raimondas" refreshedDate="42971.41128310185" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="92">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:G100" sheet="samata"/>
   </cacheSource>
@@ -579,7 +586,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="medziagos" numFmtId="0">
-      <sharedItems containsBlank="1" count="69">
+      <sharedItems containsBlank="1" count="72">
         <s v="polistirolas grindims"/>
         <s v="armavimo tinklas"/>
         <s v="betonavimas darbai"/>
@@ -602,6 +609,7 @@
         <s v="vidaus kanalizacija"/>
         <s v="katilo pajungimas"/>
         <s v="vandens-sildymo iranga"/>
+        <s v="garazo vartai"/>
         <s v="pamato poliai betonas"/>
         <s v="pamato perimetras betonas"/>
         <s v="savivartis betonui atvezti"/>
@@ -634,6 +642,8 @@
         <s v="plastikinis armavimo tinklelis"/>
         <s v="plastikines polistirolo smeiges"/>
         <s v="armavimo kampai"/>
+        <s v="polistireno kepureles"/>
+        <s v="cokolio profilis"/>
         <s v="mediena stogui gegnes"/>
         <s v="lentos po skarda"/>
         <s v="bruseliai 50x50"/>
@@ -655,7 +665,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1000"/>
     </cacheField>
     <cacheField name="kaina" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.17" maxValue="4000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.05" maxValue="4000"/>
     </cacheField>
     <cacheField name="suma" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="4000"/>
@@ -673,7 +683,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="92">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -851,8 +861,16 @@
     <m/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="22"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="550"/>
+    <m/>
+  </r>
+  <r>
     <x v="2"/>
-    <x v="22"/>
+    <x v="23"/>
     <n v="2.4"/>
     <n v="80"/>
     <n v="192"/>
@@ -860,7 +878,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="23"/>
+    <x v="24"/>
     <n v="4"/>
     <n v="80"/>
     <n v="320"/>
@@ -868,7 +886,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="24"/>
+    <x v="25"/>
     <n v="50"/>
     <n v="2.5"/>
     <n v="125"/>
@@ -876,7 +894,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="8"/>
     <n v="30"/>
     <n v="240"/>
@@ -884,7 +902,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="26"/>
+    <x v="27"/>
     <n v="0"/>
     <n v="200"/>
     <n v="0"/>
@@ -892,7 +910,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="27"/>
+    <x v="28"/>
     <n v="180"/>
     <n v="0.6"/>
     <n v="108"/>
@@ -900,7 +918,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="28"/>
+    <x v="29"/>
     <n v="192"/>
     <n v="0.6"/>
     <n v="115.19999999999999"/>
@@ -908,7 +926,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="29"/>
+    <x v="30"/>
     <n v="200"/>
     <n v="0.22"/>
     <n v="44"/>
@@ -916,7 +934,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="30"/>
+    <x v="31"/>
     <n v="1"/>
     <n v="55"/>
     <n v="55"/>
@@ -924,7 +942,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="31"/>
+    <x v="32"/>
     <n v="1.6"/>
     <n v="55"/>
     <n v="88"/>
@@ -932,7 +950,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="32"/>
+    <x v="33"/>
     <n v="0.8"/>
     <n v="55"/>
     <n v="44"/>
@@ -940,7 +958,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="33"/>
+    <x v="34"/>
     <n v="30"/>
     <n v="7"/>
     <n v="210"/>
@@ -948,7 +966,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="34"/>
+    <x v="35"/>
     <n v="40"/>
     <n v="0.5"/>
     <n v="20"/>
@@ -956,7 +974,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="35"/>
+    <x v="36"/>
     <n v="32"/>
     <n v="5.2"/>
     <n v="166.4"/>
@@ -964,7 +982,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="36"/>
+    <x v="37"/>
     <n v="0.2"/>
     <n v="120"/>
     <n v="24"/>
@@ -972,7 +990,7 @@
   </r>
   <r>
     <x v="2"/>
-    <x v="37"/>
+    <x v="38"/>
     <n v="0.4"/>
     <n v="120"/>
     <n v="48"/>
@@ -980,7 +998,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="38"/>
+    <x v="39"/>
     <n v="25"/>
     <n v="60"/>
     <n v="1500"/>
@@ -988,7 +1006,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="39"/>
+    <x v="40"/>
     <n v="0"/>
     <n v="60"/>
     <n v="0"/>
@@ -996,7 +1014,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="40"/>
+    <x v="41"/>
     <n v="1000"/>
     <n v="0.17"/>
     <n v="170"/>
@@ -1004,7 +1022,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="41"/>
+    <x v="42"/>
     <n v="35"/>
     <n v="70"/>
     <n v="2450"/>
@@ -1012,7 +1030,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="42"/>
+    <x v="43"/>
     <n v="2.5"/>
     <n v="80"/>
     <n v="200"/>
@@ -1020,7 +1038,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="43"/>
+    <x v="44"/>
     <n v="80"/>
     <n v="0.45"/>
     <n v="36"/>
@@ -1028,7 +1046,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="44"/>
+    <x v="45"/>
     <n v="1.2"/>
     <n v="80"/>
     <n v="96"/>
@@ -1036,7 +1054,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="45"/>
+    <x v="46"/>
     <n v="80"/>
     <n v="0.45"/>
     <n v="36"/>
@@ -1044,7 +1062,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="46"/>
+    <x v="47"/>
     <n v="6"/>
     <n v="60"/>
     <n v="360"/>
@@ -1052,7 +1070,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="47"/>
+    <x v="48"/>
     <n v="0"/>
     <n v="1.5"/>
     <n v="0"/>
@@ -1060,7 +1078,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="48"/>
+    <x v="49"/>
     <n v="20"/>
     <n v="2"/>
     <n v="40"/>
@@ -1068,47 +1086,63 @@
   </r>
   <r>
     <x v="4"/>
-    <x v="49"/>
-    <n v="22"/>
-    <n v="40"/>
-    <n v="880"/>
+    <x v="50"/>
+    <n v="18"/>
+    <n v="56"/>
+    <n v="1008"/>
     <s v="20 mm storio"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="50"/>
-    <n v="80"/>
-    <n v="6"/>
-    <n v="480"/>
-    <s v="5 kg/m2 ir klijuojant ir armuojant, 25 kg kaina 6 eur"/>
   </r>
   <r>
     <x v="4"/>
     <x v="51"/>
-    <n v="110"/>
-    <n v="0.81"/>
-    <n v="89.100000000000009"/>
-    <s v="0,81 uz 1 m2"/>
+    <n v="40"/>
+    <n v="6"/>
+    <n v="240"/>
+    <s v="5 kg/m2 ir klijuojant ir armuojant, 25 kg kaina 6 eur"/>
   </r>
   <r>
     <x v="4"/>
     <x v="52"/>
-    <n v="500"/>
-    <n v="0.33"/>
-    <n v="165"/>
-    <s v="0,33 uz vnt"/>
+    <n v="90"/>
+    <n v="0.81"/>
+    <n v="72.900000000000006"/>
+    <s v="0,81 uz 1 m2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="53"/>
+    <n v="300"/>
+    <n v="0.33"/>
+    <n v="99"/>
+    <s v="0,33 uz vnt"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="54"/>
     <n v="70"/>
     <n v="0.55000000000000004"/>
     <n v="38.5"/>
     <s v="0,55 uz 1 m"/>
   </r>
   <r>
+    <x v="4"/>
+    <x v="55"/>
+    <n v="300"/>
+    <n v="0.05"/>
+    <n v="15"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="56"/>
+    <n v="35"/>
+    <n v="2"/>
+    <n v="70"/>
+    <m/>
+  </r>
+  <r>
     <x v="5"/>
-    <x v="54"/>
+    <x v="57"/>
     <n v="3"/>
     <n v="120"/>
     <n v="360"/>
@@ -1116,7 +1150,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="55"/>
+    <x v="58"/>
     <n v="1.8"/>
     <n v="120"/>
     <n v="216"/>
@@ -1124,7 +1158,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="56"/>
+    <x v="59"/>
     <n v="1.2"/>
     <n v="120"/>
     <n v="144"/>
@@ -1132,7 +1166,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="57"/>
+    <x v="60"/>
     <n v="144"/>
     <n v="7"/>
     <n v="1008"/>
@@ -1140,7 +1174,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="58"/>
+    <x v="61"/>
     <n v="36"/>
     <n v="35"/>
     <n v="1260"/>
@@ -1148,7 +1182,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="59"/>
+    <x v="62"/>
     <n v="144"/>
     <n v="0.9"/>
     <n v="129.6"/>
@@ -1156,7 +1190,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="60"/>
+    <x v="63"/>
     <n v="130"/>
     <n v="0.35"/>
     <n v="45.5"/>
@@ -1164,7 +1198,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="61"/>
+    <x v="64"/>
     <n v="0.54"/>
     <n v="120"/>
     <n v="64.800000000000011"/>
@@ -1172,7 +1206,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="62"/>
+    <x v="65"/>
     <n v="1"/>
     <n v="100"/>
     <n v="100"/>
@@ -1180,7 +1214,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="63"/>
+    <x v="66"/>
     <n v="100"/>
     <n v="0.8"/>
     <n v="80"/>
@@ -1188,7 +1222,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="64"/>
+    <x v="67"/>
     <n v="1"/>
     <n v="50"/>
     <n v="50"/>
@@ -1196,7 +1230,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="65"/>
+    <x v="68"/>
     <n v="60"/>
     <n v="3.5"/>
     <n v="210"/>
@@ -1204,7 +1238,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="66"/>
+    <x v="69"/>
     <n v="12"/>
     <n v="5.0999999999999996"/>
     <n v="61.199999999999996"/>
@@ -1212,7 +1246,7 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="67"/>
+    <x v="70"/>
     <n v="24"/>
     <n v="4.25"/>
     <n v="102"/>
@@ -1220,10 +1254,74 @@
   </r>
   <r>
     <x v="5"/>
-    <x v="68"/>
+    <x v="71"/>
     <n v="1"/>
     <n v="100"/>
     <n v="100"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <n v="0"/>
     <m/>
   </r>
   <r>
@@ -1326,8 +1424,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:C73" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:C76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" showAll="0">
       <items count="8">
@@ -1342,42 +1440,42 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="70">
-        <item x="53"/>
+      <items count="73">
+        <item x="54"/>
         <item x="1"/>
         <item x="3"/>
         <item x="2"/>
         <item x="15"/>
-        <item x="56"/>
         <item x="59"/>
+        <item x="62"/>
         <item x="13"/>
         <item x="10"/>
         <item x="4"/>
-        <item x="38"/>
+        <item x="39"/>
+        <item x="27"/>
+        <item x="42"/>
+        <item x="11"/>
+        <item x="57"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="5"/>
+        <item x="50"/>
+        <item x="0"/>
+        <item x="51"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="14"/>
+        <item x="41"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="30"/>
         <item x="26"/>
-        <item x="41"/>
-        <item x="11"/>
-        <item x="54"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="52"/>
-        <item x="51"/>
-        <item x="5"/>
-        <item x="49"/>
-        <item x="0"/>
-        <item x="50"/>
-        <item x="16"/>
-        <item x="24"/>
-        <item x="14"/>
-        <item x="40"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="29"/>
-        <item x="25"/>
         <item x="9"/>
         <item x="8"/>
-        <item x="39"/>
-        <item x="42"/>
+        <item x="40"/>
+        <item x="43"/>
         <item x="12"/>
         <item x="6"/>
         <item x="7"/>
@@ -1386,9 +1484,8 @@
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
-        <item x="27"/>
         <item x="28"/>
-        <item x="30"/>
+        <item x="29"/>
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
@@ -1396,22 +1493,26 @@
         <item x="35"/>
         <item x="36"/>
         <item x="37"/>
-        <item x="43"/>
+        <item x="38"/>
         <item x="44"/>
         <item x="45"/>
         <item x="46"/>
         <item x="47"/>
         <item x="48"/>
-        <item x="55"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
+        <item x="49"/>
+        <item x="58"/>
         <item x="63"/>
         <item x="64"/>
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
         <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="22"/>
+        <item x="55"/>
+        <item x="56"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1423,7 +1524,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="70">
+  <rowItems count="73">
     <i>
       <x/>
     </i>
@@ -1630,6 +1731,15 @@
     </i>
     <i>
       <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
     </i>
     <i t="grand">
       <x/>
@@ -1696,7 +1806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1731,7 +1841,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1940,10 +2050,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,7 +2097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>48</v>
       </c>
@@ -2000,14 +2111,14 @@
         <v>55</v>
       </c>
       <c r="F2">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F33" si="0">D2*E2</f>
         <v>550</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -2021,11 +2132,11 @@
         <v>2.5</v>
       </c>
       <c r="F3">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>48</v>
       </c>
@@ -2039,11 +2150,11 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>48</v>
       </c>
@@ -2057,11 +2168,11 @@
         <v>80</v>
       </c>
       <c r="F5">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>48</v>
       </c>
@@ -2075,14 +2186,14 @@
         <v>0.7</v>
       </c>
       <c r="F6">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>48</v>
       </c>
@@ -2096,11 +2207,11 @@
         <v>0.24</v>
       </c>
       <c r="F7">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>48</v>
       </c>
@@ -2114,11 +2225,11 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>48</v>
       </c>
@@ -2132,7 +2243,7 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -2150,7 +2261,7 @@
         <v>4000</v>
       </c>
       <c r="F10">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="G10" t="s">
@@ -2171,7 +2282,7 @@
         <v>1200</v>
       </c>
       <c r="F11">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="G11" t="s">
@@ -2192,7 +2303,7 @@
         <v>2000</v>
       </c>
       <c r="F12">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
@@ -2207,7 +2318,7 @@
         <v>1000</v>
       </c>
       <c r="F13">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2216,7 +2327,7 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2234,7 +2345,7 @@
         <v>1500</v>
       </c>
       <c r="F15">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
@@ -2252,7 +2363,7 @@
         <v>1000</v>
       </c>
       <c r="F16">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -2270,7 +2381,7 @@
         <v>300</v>
       </c>
       <c r="F17">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
@@ -2288,7 +2399,7 @@
         <v>1500</v>
       </c>
       <c r="F18">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
     </row>
@@ -2300,14 +2411,14 @@
         <v>148</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F19">
-        <f>D19*E19</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -2324,7 +2435,7 @@
         <v>3</v>
       </c>
       <c r="F20">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G20" t="s">
@@ -2345,7 +2456,7 @@
         <v>1.4</v>
       </c>
       <c r="F21">
-        <f>D21*E21</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -2363,7 +2474,7 @@
         <v>500</v>
       </c>
       <c r="F22">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -2381,994 +2492,1102 @@
         <v>1000</v>
       </c>
       <c r="F23">
-        <f>D23*E23</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="D24">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="F24">
-        <f>D24*E24</f>
-        <v>192</v>
-      </c>
-      <c r="G24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="E25">
         <v>80</v>
       </c>
       <c r="F25">
-        <f>D25*E25</f>
-        <v>320</v>
+        <f t="shared" si="0"/>
+        <v>192</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>2.5</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <f>D26*E26</f>
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="F27">
-        <f>D27*E27</f>
-        <v>240</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <f>D28*E28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0.6</v>
+        <v>200</v>
       </c>
       <c r="F29">
-        <f>D29*E29</f>
-        <v>108</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D30">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E30">
         <v>0.6</v>
       </c>
       <c r="F30">
-        <f>D30*E30</f>
-        <v>115.19999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="D31">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E31">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="F31">
-        <f>D31*E31</f>
-        <v>44</v>
-      </c>
-      <c r="G31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>115.19999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E32">
-        <v>55</v>
+        <v>0.22</v>
       </c>
       <c r="F32">
-        <f>D32*E32</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D33">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>55</v>
       </c>
       <c r="F33">
-        <f>D33*E33</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="E34">
         <v>55</v>
       </c>
       <c r="F34">
-        <f>D34*E34</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F34:F65" si="1">D34*E34</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>0.8</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="F35">
-        <f>D35*E35</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="F36">
-        <f>D36*E36</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E37">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="F37">
-        <f>D37*E37</f>
-        <v>166.4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38">
-        <v>0.2</v>
+        <v>32</v>
       </c>
       <c r="E38">
-        <v>120</v>
+        <v>5.2</v>
       </c>
       <c r="F38">
-        <f>D38*E38</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>166.4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E39">
         <v>120</v>
       </c>
       <c r="F39">
-        <f>D39*E39</f>
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40">
+        <v>0.4</v>
+      </c>
+      <c r="E40">
+        <v>120</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40">
-        <v>25</v>
-      </c>
-      <c r="E40">
-        <v>60</v>
-      </c>
-      <c r="F40">
-        <f>D40*E40</f>
-        <v>1500</v>
-      </c>
-      <c r="G40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>60</v>
       </c>
       <c r="F41">
-        <f>D41*E41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="G41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D42">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0.17</v>
+        <v>60</v>
       </c>
       <c r="F42">
-        <f>D42*E42</f>
-        <v>170</v>
-      </c>
-      <c r="G42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>35</v>
+        <v>1000</v>
       </c>
       <c r="E43">
-        <v>70</v>
+        <v>0.17</v>
       </c>
       <c r="F43">
-        <f>D43*E43</f>
-        <v>2450</v>
+        <f t="shared" si="1"/>
+        <v>170</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>2.5</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F44">
-        <f>D44*E44</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2450</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="D45">
+        <v>2.5</v>
+      </c>
+      <c r="E45">
         <v>80</v>
       </c>
-      <c r="E45">
-        <v>0.45</v>
-      </c>
       <c r="F45">
-        <f>D45*E45</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D46">
-        <v>1.2</v>
+        <v>80</v>
       </c>
       <c r="E46">
-        <v>80</v>
+        <v>0.45</v>
       </c>
       <c r="F46">
-        <f>D46*E46</f>
-        <v>96</v>
-      </c>
-      <c r="G46" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D47">
+        <v>1.2</v>
+      </c>
+      <c r="E47">
         <v>80</v>
       </c>
-      <c r="E47">
-        <v>0.45</v>
-      </c>
       <c r="F47">
-        <f>D47*E47</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="E48">
-        <v>60</v>
+        <v>0.45</v>
       </c>
       <c r="F48">
-        <f>D48*E48</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E49">
-        <v>1.5</v>
+        <v>60</v>
       </c>
       <c r="F49">
-        <f>D49*E49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>47</v>
       </c>
       <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1.5</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
         <v>130</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>20</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>2</v>
       </c>
-      <c r="F50">
-        <f>D50*E50</f>
+      <c r="F51">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51">
-        <v>22</v>
-      </c>
-      <c r="E51">
-        <v>40</v>
-      </c>
-      <c r="F51">
-        <f>D51*E51</f>
-        <v>880</v>
-      </c>
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D52">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="F52">
-        <f>D52*E52</f>
-        <v>480</v>
+        <f t="shared" si="1"/>
+        <v>1008</v>
       </c>
       <c r="G52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D53">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>0.81</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <f>D53*E53</f>
-        <v>89.100000000000009</v>
+        <f t="shared" si="1"/>
+        <v>240</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D54">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="E54">
-        <v>0.33</v>
+        <v>0.81</v>
       </c>
       <c r="F54">
-        <f>D54*E54</f>
-        <v>165</v>
+        <f t="shared" si="1"/>
+        <v>72.900000000000006</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>78</v>
       </c>
       <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>300</v>
+      </c>
+      <c r="E55">
+        <v>0.33</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="G55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
         <v>67</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>70</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F55">
-        <f>D55*E55</f>
+      <c r="F56">
+        <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57">
+        <v>300</v>
+      </c>
+      <c r="E57">
+        <v>0.05</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>120</v>
-      </c>
-      <c r="F56">
-        <f>D56*E56</f>
-        <v>360</v>
-      </c>
-      <c r="G56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57">
-        <v>1.8</v>
-      </c>
-      <c r="E57">
-        <v>120</v>
-      </c>
-      <c r="F57">
-        <f>D57*E57</f>
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="D58">
-        <v>1.2</v>
+        <v>35</v>
       </c>
       <c r="E58">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <f>D58*E58</f>
-        <v>144</v>
-      </c>
-      <c r="G58" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="F59">
-        <f>D59*E59</f>
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="G59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>1.8</v>
       </c>
       <c r="E60">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="F60">
-        <f>D60*E60</f>
-        <v>1260</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D61">
+        <v>1.2</v>
+      </c>
+      <c r="E61">
+        <v>120</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="E61">
-        <v>0.9</v>
-      </c>
-      <c r="F61">
-        <f>D61*E61</f>
-        <v>129.6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="D62">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E62">
-        <v>0.35</v>
+        <v>7</v>
       </c>
       <c r="F62">
-        <f>D62*E62</f>
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>49</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>0.54</v>
+        <v>36</v>
       </c>
       <c r="E63">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F63">
-        <f>D63*E63</f>
-        <v>64.800000000000011</v>
+        <f t="shared" si="1"/>
+        <v>1260</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E64">
-        <v>100</v>
+        <v>0.9</v>
       </c>
       <c r="F64">
-        <f>D64*E64</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D65">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="E65">
-        <v>0.8</v>
+        <v>0.35</v>
       </c>
       <c r="F65">
-        <f>D65*E65</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="F66">
-        <f>D66*E66</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F66:F92" si="2">D66*E66</f>
+        <v>64.800000000000011</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D67">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>3.5</v>
+        <v>100</v>
       </c>
       <c r="F67">
-        <f>D67*E67</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D68">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E68">
-        <v>5.0999999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="F68">
-        <f>D68*E68</f>
-        <v>61.199999999999996</v>
-      </c>
-      <c r="G68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>49</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>4.25</v>
+        <v>50</v>
       </c>
       <c r="F69">
-        <f>D69*E69</f>
-        <v>102</v>
-      </c>
-      <c r="G69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>49</v>
       </c>
       <c r="C70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70">
+        <v>60</v>
+      </c>
+      <c r="E70">
+        <v>3.5</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="G71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>4.25</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="G72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" t="s">
         <v>143</v>
       </c>
-      <c r="D70">
+      <c r="D73">
         <v>1</v>
       </c>
-      <c r="E70">
+      <c r="E73">
         <v>100</v>
       </c>
-      <c r="F70">
-        <f>D70*E70</f>
+      <c r="F73">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F71">
-        <f>D71*E71</f>
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F72">
-        <f>D72*E72</f>
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F73">
-        <f>D73*E73</f>
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F74">
-        <f>D74*E74</f>
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F75">
-        <f>D75*E75</f>
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F76">
-        <f>D76*E76</f>
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F77">
-        <f>D77*E77</f>
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F78">
-        <f>D78*E78</f>
+    <row r="81" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F79">
-        <f>D79*E79</f>
+    <row r="82" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F80">
-        <f>D80*E80</f>
+    <row r="83" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81">
-        <f>D81*E81</f>
+    <row r="84" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
+    <row r="85" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:K81"/>
-  <sortState ref="A2:H81">
+  <autoFilter ref="B1:K92">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="inzinerija"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:H92">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3588,10 +3807,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C73"/>
+  <dimension ref="B1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,7 +3978,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="4">
-        <v>165</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -3767,7 +3986,7 @@
         <v>63</v>
       </c>
       <c r="C22" s="4">
-        <v>89.100000000000009</v>
+        <v>72.900000000000006</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -3783,7 +4002,7 @@
         <v>57</v>
       </c>
       <c r="C24" s="4">
-        <v>880</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -3799,7 +4018,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="4">
-        <v>480</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -4172,10 +4391,34 @@
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C73" s="4">
-        <v>27313.300000000003</v>
+      <c r="C76" s="4">
+        <v>27754.100000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4186,10 +4429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4199,36 +4442,41 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>87</v>
       </c>
     </row>
